--- a/figtable/supp/Table_S2.xlsx
+++ b/figtable/supp/Table_S2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b7c4edc1d693829/Documents/Univ/PostToJEB/figtable/supp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro.t/Seedsize_associated_matingsystem/figtable/supp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{9C55B18D-AEAC-6B40-B232-199D82F48EC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7EF4FC32-A059-4792-B21D-709BEF5C0F31}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96400317-F9CF-774E-837B-3041AA00380D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25060" windowHeight="20500" xr2:uid="{9F5C1828-FB04-B047-9BD4-AA7DC9E71290}"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -305,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,23 +339,47 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,31 +387,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -408,7 +411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -704,104 +707,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC5C3F2-88F8-2B4C-B6F4-805186E106A3}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="11" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5"/>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="26" t="s">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="20" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.5">
-      <c r="A3" s="27"/>
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="23"/>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.5">
-      <c r="A4" s="5" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B3" s="11">
         <v>-0.195740467635523</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11">
         <v>0.10948068538731499</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11">
         <v>-0.31233854811149298</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G3" s="6">
         <v>5</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H3" s="17">
         <v>-129.80445718720401</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I3" s="17">
         <v>269.60891437440802</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J3" s="17">
         <v>0</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K3" s="11">
         <v>0.23105049408047099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12">
+        <v>-0.169002809472836</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12">
+        <v>-0.32644796804364901</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12">
+        <v>-131.327090625316</v>
+      </c>
+      <c r="I4" s="12">
+        <v>270.65418125063201</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1.0452668762232</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.13700300194783199</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -809,34 +846,34 @@
         <v>12</v>
       </c>
       <c r="B5" s="12">
-        <v>-0.169002809472836</v>
+        <v>-0.17270880449894599</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
+      <c r="D5" s="12">
+        <v>0.10222869173850201</v>
+      </c>
+      <c r="E5" s="12">
+        <v>8.1395735461676402E-2</v>
       </c>
       <c r="F5" s="12">
-        <v>-0.32644796804364901</v>
+        <v>-0.323683158932075</v>
       </c>
       <c r="G5" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="12">
-        <v>-131.327090625316</v>
+        <v>-129.37818916395</v>
       </c>
       <c r="I5" s="12">
-        <v>270.65418125063201</v>
+        <v>270.75637832789999</v>
       </c>
       <c r="J5" s="12">
-        <v>1.0452668762232</v>
+        <v>1.1474639534916899</v>
       </c>
       <c r="K5" s="12">
-        <v>0.13700300194783199</v>
+        <v>0.13017820233564301</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -844,34 +881,34 @@
         <v>12</v>
       </c>
       <c r="B6" s="12">
-        <v>-0.17270880449894599</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>13</v>
+        <v>-0.19594049018568299</v>
+      </c>
+      <c r="C6" s="12">
+        <v>-3.3231787762176099E-2</v>
       </c>
       <c r="D6" s="12">
-        <v>0.10222869173850201</v>
-      </c>
-      <c r="E6" s="12">
-        <v>8.1395735461676402E-2</v>
+        <v>0.10936904873693901</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="12">
-        <v>-0.323683158932075</v>
+        <v>-0.31956635026351599</v>
       </c>
       <c r="G6" s="2">
         <v>6</v>
       </c>
       <c r="H6" s="12">
-        <v>-129.37818916395</v>
+        <v>-129.46464245118699</v>
       </c>
       <c r="I6" s="12">
-        <v>270.75637832789999</v>
+        <v>270.92928490237398</v>
       </c>
       <c r="J6" s="12">
-        <v>1.1474639534916899</v>
+        <v>1.3203705279651099</v>
       </c>
       <c r="K6" s="12">
-        <v>0.13017820233564301</v>
+        <v>0.119396634255356</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -879,34 +916,34 @@
         <v>12</v>
       </c>
       <c r="B7" s="12">
-        <v>-0.19594049018568299</v>
-      </c>
-      <c r="C7" s="12">
-        <v>-3.3231787762176099E-2</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.10936904873693901</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
+        <v>-0.14306424581007901</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12">
+        <v>9.9291930609743007E-2</v>
       </c>
       <c r="F7" s="12">
-        <v>-0.31956635026351599</v>
+        <v>-0.33914295714444398</v>
       </c>
       <c r="G7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="12">
-        <v>-129.46464245118699</v>
+        <v>-130.698258107745</v>
       </c>
       <c r="I7" s="12">
-        <v>270.92928490237398</v>
+        <v>271.39651621549001</v>
       </c>
       <c r="J7" s="12">
-        <v>1.3203705279651099</v>
+        <v>1.78760184108125</v>
       </c>
       <c r="K7" s="12">
-        <v>0.119396634255356</v>
+        <v>9.4522259326113203E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -914,34 +951,34 @@
         <v>12</v>
       </c>
       <c r="B8" s="12">
-        <v>-0.14306424581007901</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
+        <v>-0.17125143719096</v>
+      </c>
+      <c r="C8" s="12">
+        <v>-3.6288018703911198E-2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.101575348781069</v>
       </c>
       <c r="E8" s="12">
-        <v>9.9291930609743007E-2</v>
+        <v>8.72896457649356E-2</v>
       </c>
       <c r="F8" s="12">
-        <v>-0.33914295714444398</v>
+        <v>-0.33240256360899101</v>
       </c>
       <c r="G8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" s="12">
-        <v>-130.698258107745</v>
+        <v>-128.97183021880801</v>
       </c>
       <c r="I8" s="12">
-        <v>271.39651621549001</v>
+        <v>271.94366043761602</v>
       </c>
       <c r="J8" s="12">
-        <v>1.78760184108125</v>
+        <v>2.33474606320789</v>
       </c>
       <c r="K8" s="12">
-        <v>9.4522259326113203E-2</v>
+        <v>7.1899063824716294E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -949,34 +986,34 @@
         <v>12</v>
       </c>
       <c r="B9" s="12">
-        <v>-0.17125143719096</v>
+        <v>-0.16921493286904099</v>
       </c>
       <c r="C9" s="12">
-        <v>-3.6288018703911198E-2</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.101575348781069</v>
-      </c>
-      <c r="E9" s="12">
-        <v>8.72896457649356E-2</v>
+        <v>-3.30357378498395E-2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F9" s="12">
-        <v>-0.33240256360899101</v>
+        <v>-0.33360137374017801</v>
       </c>
       <c r="G9" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H9" s="12">
-        <v>-128.97183021880801</v>
+        <v>-130.99989067205101</v>
       </c>
       <c r="I9" s="12">
-        <v>271.94366043761602</v>
+        <v>271.99978134410298</v>
       </c>
       <c r="J9" s="12">
-        <v>2.33474606320789</v>
+        <v>2.3908669696941698</v>
       </c>
       <c r="K9" s="12">
-        <v>7.1899063824716294E-2</v>
+        <v>6.9909586858053999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -984,34 +1021,34 @@
         <v>12</v>
       </c>
       <c r="B10" s="12">
-        <v>-0.16921493286904099</v>
+        <v>-0.141757878611139</v>
       </c>
       <c r="C10" s="12">
-        <v>-3.30357378498395E-2</v>
+        <v>-3.6737598031227503E-2</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>13</v>
+      <c r="E10" s="12">
+        <v>0.105160617226927</v>
       </c>
       <c r="F10" s="12">
-        <v>-0.33360137374017801</v>
+        <v>-0.34786682550134101</v>
       </c>
       <c r="G10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="12">
-        <v>-130.99989067205101</v>
+        <v>-130.29089836435301</v>
       </c>
       <c r="I10" s="12">
-        <v>271.99978134410298</v>
+        <v>272.58179672870602</v>
       </c>
       <c r="J10" s="12">
-        <v>2.3908669696941698</v>
+        <v>2.9728823542978899</v>
       </c>
       <c r="K10" s="12">
-        <v>6.9909586858053999E-2</v>
+        <v>5.2258110233458201E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1019,34 +1056,34 @@
         <v>12</v>
       </c>
       <c r="B11" s="12">
-        <v>-0.141757878611139</v>
-      </c>
-      <c r="C11" s="12">
-        <v>-3.6737598031227503E-2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.105160617226927</v>
-      </c>
-      <c r="F11" s="12">
-        <v>-0.34786682550134101</v>
+        <v>-0.352033501948604</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.120484694721888</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H11" s="12">
-        <v>-130.29089836435301</v>
+        <v>-132.86043119558701</v>
       </c>
       <c r="I11" s="12">
-        <v>272.58179672870602</v>
+        <v>273.72086239117402</v>
       </c>
       <c r="J11" s="12">
-        <v>2.9728823542978899</v>
+        <v>4.1119480167655</v>
       </c>
       <c r="K11" s="12">
-        <v>5.2258110233458201E-2</v>
+        <v>2.95671003152016E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1054,13 +1091,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="12">
-        <v>-0.352033501948604</v>
+        <v>-0.33036229243491</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12">
-        <v>0.120484694721888</v>
+      <c r="D12" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>13</v>
@@ -1069,19 +1106,19 @@
         <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="12">
-        <v>-132.86043119558701</v>
+        <v>-134.58804878972799</v>
       </c>
       <c r="I12" s="12">
-        <v>273.72086239117402</v>
+        <v>275.17609757945598</v>
       </c>
       <c r="J12" s="12">
-        <v>4.1119480167655</v>
+        <v>5.5671832050474599</v>
       </c>
       <c r="K12" s="12">
-        <v>2.95671003152016E-2</v>
+        <v>1.4282637992288899E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1089,34 +1126,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="12">
-        <v>-0.33036229243491</v>
+        <v>-0.33944223162802301</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>13</v>
+      <c r="D13" s="12">
+        <v>0.115516188791283</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5.9139850247390699E-2</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="12">
-        <v>-134.58804878972799</v>
+        <v>-132.64836772679999</v>
       </c>
       <c r="I13" s="12">
-        <v>275.17609757945598</v>
+        <v>275.29673545359901</v>
       </c>
       <c r="J13" s="12">
-        <v>5.5671832050474599</v>
+        <v>5.6878210791906598</v>
       </c>
       <c r="K13" s="12">
-        <v>1.4282637992288899E-2</v>
+        <v>1.3446592606319601E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1124,16 +1161,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="12">
-        <v>-0.33944223162802301</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>13</v>
+        <v>-0.35494516441982199</v>
+      </c>
+      <c r="C14" s="12">
+        <v>-2.5344693819990501E-2</v>
       </c>
       <c r="D14" s="12">
-        <v>0.115516188791283</v>
-      </c>
-      <c r="E14" s="12">
-        <v>5.9139850247390699E-2</v>
+        <v>0.120568434827273</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>13</v>
@@ -1142,16 +1179,16 @@
         <v>5</v>
       </c>
       <c r="H14" s="12">
-        <v>-132.64836772679999</v>
+        <v>-132.67478829803699</v>
       </c>
       <c r="I14" s="12">
-        <v>275.29673545359901</v>
+        <v>275.349576596075</v>
       </c>
       <c r="J14" s="12">
-        <v>5.6878210791906598</v>
+        <v>5.7406622216661303</v>
       </c>
       <c r="K14" s="12">
-        <v>1.3446592606319601E-2</v>
+        <v>1.30959780619361E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1159,34 +1196,34 @@
         <v>12</v>
       </c>
       <c r="B15" s="12">
-        <v>-0.35494516441982199</v>
-      </c>
-      <c r="C15" s="12">
-        <v>-2.5344693819990501E-2</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0.120568434827273</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>13</v>
+        <v>-0.31489279711932</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="12">
+        <v>7.8216574929938207E-2</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="12">
-        <v>-132.67478829803699</v>
+        <v>-134.22253058698001</v>
       </c>
       <c r="I15" s="12">
-        <v>275.349576596075</v>
+        <v>276.445061173959</v>
       </c>
       <c r="J15" s="12">
-        <v>5.7406622216661303</v>
+        <v>6.8361467995510496</v>
       </c>
       <c r="K15" s="12">
-        <v>1.30959780619361E-2</v>
+        <v>7.5727999680598899E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1194,16 +1231,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="12">
-        <v>-0.31489279711932</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>13</v>
+        <v>-0.33317540154298703</v>
+      </c>
+      <c r="C16" s="12">
+        <v>-2.4790604742296399E-2</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="12">
-        <v>7.8216574929938207E-2</v>
+      <c r="E16" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>13</v>
@@ -1212,16 +1249,16 @@
         <v>4</v>
       </c>
       <c r="H16" s="12">
-        <v>-134.22253058698001</v>
+        <v>-134.41564588592101</v>
       </c>
       <c r="I16" s="12">
-        <v>276.445061173959</v>
+        <v>276.83129177184298</v>
       </c>
       <c r="J16" s="12">
-        <v>6.8361467995510496</v>
+        <v>7.2223773974341698</v>
       </c>
       <c r="K16" s="12">
-        <v>7.5727999680598899E-3</v>
+        <v>6.2429172241805896E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1229,34 +1266,34 @@
         <v>12</v>
       </c>
       <c r="B17" s="12">
-        <v>-0.33317540154298703</v>
+        <v>-0.341737831732084</v>
       </c>
       <c r="C17" s="12">
-        <v>-2.4790604742296399E-2</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>13</v>
+        <v>-2.7304138351614899E-2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.115270854768664</v>
+      </c>
+      <c r="E17" s="12">
+        <v>6.3077093830694E-2</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" s="12">
-        <v>-134.41564588592101</v>
+        <v>-132.433040009244</v>
       </c>
       <c r="I17" s="12">
-        <v>276.83129177184298</v>
+        <v>276.86608001848901</v>
       </c>
       <c r="J17" s="12">
-        <v>7.2223773974341698</v>
+        <v>7.2571656440801497</v>
       </c>
       <c r="K17" s="12">
-        <v>6.2429172241805896E-3</v>
+        <v>6.1352661146153002E-3</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1264,104 +1301,104 @@
         <v>12</v>
       </c>
       <c r="B18" s="12">
-        <v>-0.341737831732084</v>
+        <v>-0.317221798445878</v>
       </c>
       <c r="C18" s="12">
-        <v>-2.7304138351614899E-2</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.115270854768664</v>
+        <v>-2.737816437026E-2</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="12">
-        <v>6.3077093830694E-2</v>
+        <v>8.2140382141716206E-2</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="12">
+        <v>-134.01180955106699</v>
+      </c>
+      <c r="I18" s="12">
+        <v>278.02361910213301</v>
+      </c>
+      <c r="J18" s="12">
+        <v>8.4147047277250007</v>
+      </c>
+      <c r="K18" s="12">
+        <v>3.4393548557539598E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="13">
+        <v>2.0354196445048201E-2</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.36086470368093498</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-0.90501235620854303</v>
+      </c>
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
+      <c r="H19" s="13">
+        <v>-84.014781980775297</v>
+      </c>
+      <c r="I19" s="13">
+        <v>178.02956396155099</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0.39531526881976797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2.47134513132381E-2</v>
+      </c>
+      <c r="C20" s="14">
+        <v>7.6180076557810894E-2</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.35699783964621301</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="14">
+        <v>-0.87910323686805303</v>
+      </c>
+      <c r="G20" s="3">
         <v>6</v>
       </c>
-      <c r="H18" s="12">
-        <v>-132.433040009244</v>
-      </c>
-      <c r="I18" s="12">
-        <v>276.86608001848901</v>
-      </c>
-      <c r="J18" s="12">
-        <v>7.2571656440801497</v>
-      </c>
-      <c r="K18" s="12">
-        <v>6.1352661146153002E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="12">
-        <v>-0.317221798445878</v>
-      </c>
-      <c r="C19" s="12">
-        <v>-2.737816437026E-2</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="12">
-        <v>8.2140382141716206E-2</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19" s="12">
-        <v>-134.01180955106699</v>
-      </c>
-      <c r="I19" s="12">
-        <v>278.02361910213301</v>
-      </c>
-      <c r="J19" s="12">
-        <v>8.4147047277250007</v>
-      </c>
-      <c r="K19" s="12">
-        <v>3.4393548557539598E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="13">
-        <v>2.0354196445048201E-2</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="13">
-        <v>0.36086470368093498</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13">
-        <v>-0.90501235620854303</v>
-      </c>
-      <c r="G20" s="8">
-        <v>5</v>
-      </c>
-      <c r="H20" s="13">
-        <v>-84.014781980775297</v>
-      </c>
-      <c r="I20" s="13">
-        <v>178.02956396155099</v>
-      </c>
-      <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13">
-        <v>0.39531526881976797</v>
+      <c r="H20" s="14">
+        <v>-83.596062618454994</v>
+      </c>
+      <c r="I20" s="14">
+        <v>179.19212523690999</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1.16256127535954</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0.221053103013021</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1369,34 +1406,34 @@
         <v>14</v>
       </c>
       <c r="B21" s="14">
-        <v>2.47134513132381E-2</v>
-      </c>
-      <c r="C21" s="14">
-        <v>7.6180076557810894E-2</v>
+        <v>2.1622598166804799E-2</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="D21" s="14">
-        <v>0.35699783964621301</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>13</v>
+        <v>0.36412121173610001</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2.86725322538087E-2</v>
       </c>
       <c r="F21" s="14">
-        <v>-0.87910323686805303</v>
+        <v>-0.910193195748081</v>
       </c>
       <c r="G21" s="3">
         <v>6</v>
       </c>
       <c r="H21" s="14">
-        <v>-83.596062618454994</v>
+        <v>-83.998106465046405</v>
       </c>
       <c r="I21" s="14">
-        <v>179.19212523690999</v>
+        <v>179.99621293009301</v>
       </c>
       <c r="J21" s="14">
-        <v>1.16256127535954</v>
+        <v>1.96664896854219</v>
       </c>
       <c r="K21" s="14">
-        <v>0.221053103013021</v>
+        <v>0.147873785787215</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1404,34 +1441,34 @@
         <v>14</v>
       </c>
       <c r="B22" s="14">
-        <v>2.1622598166804799E-2</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>13</v>
+        <v>2.5833132380289999E-2</v>
+      </c>
+      <c r="C22" s="14">
+        <v>7.5723285440724097E-2</v>
       </c>
       <c r="D22" s="14">
-        <v>0.36412121173610001</v>
+        <v>0.35968332477813297</v>
       </c>
       <c r="E22" s="14">
-        <v>2.86725322538087E-2</v>
+        <v>2.3315480696124501E-2</v>
       </c>
       <c r="F22" s="14">
-        <v>-0.910193195748081</v>
+        <v>-0.883514065690578</v>
       </c>
       <c r="G22" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" s="14">
-        <v>-83.998106465046405</v>
+        <v>-83.584862078436302</v>
       </c>
       <c r="I22" s="14">
-        <v>179.99621293009301</v>
+        <v>181.169724156873</v>
       </c>
       <c r="J22" s="14">
-        <v>1.96664896854219</v>
+        <v>3.1401601953221201</v>
       </c>
       <c r="K22" s="14">
-        <v>0.147873785787215</v>
+        <v>8.2236849946981397E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1439,34 +1476,34 @@
         <v>14</v>
       </c>
       <c r="B23" s="14">
-        <v>2.5833132380289999E-2</v>
-      </c>
-      <c r="C23" s="14">
-        <v>7.5723285440724097E-2</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.35968332477813297</v>
-      </c>
-      <c r="E23" s="14">
-        <v>2.3315480696124501E-2</v>
+        <v>-7.8511696542662102E-2</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="F23" s="14">
-        <v>-0.883514065690578</v>
+        <v>-0.72225032105936904</v>
       </c>
       <c r="G23" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H23" s="14">
-        <v>-83.584862078436302</v>
+        <v>-87.050323522032997</v>
       </c>
       <c r="I23" s="14">
-        <v>181.169724156873</v>
+        <v>182.10064704406599</v>
       </c>
       <c r="J23" s="14">
-        <v>3.1401601953221201</v>
+        <v>4.07108308251546</v>
       </c>
       <c r="K23" s="14">
-        <v>8.2236849946981397E-2</v>
+        <v>5.1632021628294798E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1474,10 +1511,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="14">
-        <v>-7.8511696542662102E-2</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>13</v>
+        <v>-7.2941573670512294E-2</v>
+      </c>
+      <c r="C24" s="14">
+        <v>8.2588641973210697E-2</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -1486,22 +1523,22 @@
         <v>13</v>
       </c>
       <c r="F24" s="14">
-        <v>-0.72225032105936904</v>
+        <v>-0.69637188933736205</v>
       </c>
       <c r="G24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="14">
-        <v>-87.050323522032997</v>
+        <v>-86.609206292907302</v>
       </c>
       <c r="I24" s="14">
-        <v>182.10064704406599</v>
+        <v>183.218412585815</v>
       </c>
       <c r="J24" s="14">
-        <v>4.07108308251546</v>
+        <v>5.1888486242640397</v>
       </c>
       <c r="K24" s="14">
-        <v>5.1632021628294798E-2</v>
+        <v>2.9525647231853299E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1509,34 +1546,34 @@
         <v>14</v>
       </c>
       <c r="B25" s="14">
-        <v>-7.2941573670512294E-2</v>
-      </c>
-      <c r="C25" s="14">
-        <v>8.2588641973210697E-2</v>
+        <v>-7.9088278396082706E-2</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>13</v>
+      <c r="E25" s="14">
+        <v>-2.1513962499080701E-2</v>
       </c>
       <c r="F25" s="14">
-        <v>-0.69637188933736205</v>
+        <v>-0.71965762988729498</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
       </c>
       <c r="H25" s="14">
-        <v>-86.609206292907302</v>
+        <v>-87.041697429778907</v>
       </c>
       <c r="I25" s="14">
-        <v>183.218412585815</v>
+        <v>184.08339485955801</v>
       </c>
       <c r="J25" s="14">
-        <v>5.1888486242640397</v>
+        <v>6.0538308980073596</v>
       </c>
       <c r="K25" s="14">
-        <v>2.9525647231853299E-2</v>
+        <v>1.9158915074911399E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1544,34 +1581,34 @@
         <v>14</v>
       </c>
       <c r="B26" s="14">
-        <v>-7.9088278396082706E-2</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>13</v>
+        <v>-7.36674263281175E-2</v>
+      </c>
+      <c r="C26" s="14">
+        <v>8.3137468834530798E-2</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="14">
-        <v>-2.1513962499080701E-2</v>
+        <v>-2.71005836101205E-2</v>
       </c>
       <c r="F26" s="14">
-        <v>-0.71965762988729498</v>
+        <v>-0.69293889979786305</v>
       </c>
       <c r="G26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" s="14">
-        <v>-87.041697429778907</v>
+        <v>-86.595304775797999</v>
       </c>
       <c r="I26" s="14">
-        <v>184.08339485955801</v>
+        <v>185.190609551596</v>
       </c>
       <c r="J26" s="14">
-        <v>6.0538308980073596</v>
+        <v>7.1610455900455499</v>
       </c>
       <c r="K26" s="14">
-        <v>1.9158915074911399E-2</v>
+        <v>1.10139296163307E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1579,34 +1616,34 @@
         <v>14</v>
       </c>
       <c r="B27" s="14">
-        <v>-7.36674263281175E-2</v>
-      </c>
-      <c r="C27" s="14">
-        <v>8.3137468834530798E-2</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="14">
-        <v>-2.71005836101205E-2</v>
-      </c>
-      <c r="F27" s="14">
-        <v>-0.69293889979786305</v>
+        <v>-0.38894628869520498</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.24938897738655499</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="G27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H27" s="14">
-        <v>-86.595304775797999</v>
+        <v>-88.637596076681803</v>
       </c>
       <c r="I27" s="14">
-        <v>185.190609551596</v>
+        <v>185.275192153364</v>
       </c>
       <c r="J27" s="14">
-        <v>7.1610455900455499</v>
+        <v>7.2456281918130996</v>
       </c>
       <c r="K27" s="14">
-        <v>1.10139296163307E-2</v>
+        <v>1.05578483159137E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1614,13 +1651,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="14">
-        <v>-0.38894628869520498</v>
+        <v>-0.40381709152435202</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="14">
-        <v>0.24938897738655499</v>
+      <c r="D28" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>13</v>
@@ -1629,19 +1666,19 @@
         <v>13</v>
       </c>
       <c r="G28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28" s="14">
-        <v>-88.637596076681803</v>
+        <v>-89.978504051533605</v>
       </c>
       <c r="I28" s="14">
-        <v>185.275192153364</v>
+        <v>185.95700810306701</v>
       </c>
       <c r="J28" s="14">
-        <v>7.2456281918130996</v>
+        <v>7.9274441415165899</v>
       </c>
       <c r="K28" s="14">
-        <v>1.05578483159137E-2</v>
+        <v>7.5079429842986401E-3</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1649,13 +1686,13 @@
         <v>14</v>
       </c>
       <c r="B29" s="14">
-        <v>-0.40381709152435202</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>13</v>
+        <v>-0.36623460109144002</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0.101700816122472</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.25000246044702201</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>13</v>
@@ -1664,19 +1701,19 @@
         <v>13</v>
       </c>
       <c r="G29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29" s="14">
-        <v>-89.978504051533605</v>
+        <v>-87.986827174953703</v>
       </c>
       <c r="I29" s="14">
-        <v>185.95700810306701</v>
+        <v>185.97365434990701</v>
       </c>
       <c r="J29" s="14">
-        <v>7.9274441415165899</v>
+        <v>7.9440903883569502</v>
       </c>
       <c r="K29" s="14">
-        <v>7.5079429842986401E-3</v>
+        <v>7.4457127822807204E-3</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1684,13 +1721,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="14">
-        <v>-0.36623460109144002</v>
+        <v>-0.38142029125348798</v>
       </c>
       <c r="C30" s="14">
-        <v>0.101700816122472</v>
-      </c>
-      <c r="D30" s="14">
-        <v>0.25000246044702201</v>
+        <v>0.102083164944529</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>13</v>
@@ -1699,19 +1736,19 @@
         <v>13</v>
       </c>
       <c r="G30" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30" s="14">
-        <v>-87.986827174953703</v>
+        <v>-89.358031350734507</v>
       </c>
       <c r="I30" s="14">
-        <v>185.97365434990701</v>
+        <v>186.71606270146901</v>
       </c>
       <c r="J30" s="14">
-        <v>7.9440903883569502</v>
+        <v>8.6864987399183899</v>
       </c>
       <c r="K30" s="14">
-        <v>7.4457127822807204E-3</v>
+        <v>5.1368200746719599E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1719,34 +1756,34 @@
         <v>14</v>
       </c>
       <c r="B31" s="14">
-        <v>-0.38142029125348798</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0.102083164944529</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>13</v>
+        <v>-0.38845785909728398</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.24761148456292001</v>
+      </c>
+      <c r="E31" s="14">
+        <v>-2.03335841429487E-2</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" s="14">
-        <v>-89.358031350734507</v>
+        <v>-88.630410373847795</v>
       </c>
       <c r="I31" s="14">
-        <v>186.71606270146901</v>
+        <v>187.26082074769599</v>
       </c>
       <c r="J31" s="14">
-        <v>8.6864987399183899</v>
+        <v>9.2312567861450798</v>
       </c>
       <c r="K31" s="14">
-        <v>5.1368200746719599E-3</v>
+        <v>3.9120252333238502E-3</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1754,34 +1791,34 @@
         <v>14</v>
       </c>
       <c r="B32" s="14">
-        <v>-0.38845785909728398</v>
+        <v>-0.40266709178680898</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="14">
-        <v>0.24761148456292001</v>
+      <c r="D32" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E32" s="14">
-        <v>-2.03335841429487E-2</v>
+        <v>-4.8604642895706499E-2</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32" s="14">
-        <v>-88.630410373847795</v>
+        <v>-89.938721350850798</v>
       </c>
       <c r="I32" s="14">
-        <v>187.26082074769599</v>
+        <v>187.87744270170199</v>
       </c>
       <c r="J32" s="14">
-        <v>9.2312567861450798</v>
+        <v>9.8478787401509997</v>
       </c>
       <c r="K32" s="14">
-        <v>3.9120252333238502E-3</v>
+        <v>2.8741133462656999E-3</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1789,34 +1826,34 @@
         <v>14</v>
       </c>
       <c r="B33" s="14">
-        <v>-0.40266709178680898</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>13</v>
+        <v>-0.365680878423636</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.102017019006093</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.247779060581266</v>
       </c>
       <c r="E33" s="14">
-        <v>-4.8604642895706499E-2</v>
+        <v>-2.5027718286959998E-2</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H33" s="14">
-        <v>-89.938721350850798</v>
+        <v>-87.975707166178296</v>
       </c>
       <c r="I33" s="14">
-        <v>187.87744270170199</v>
+        <v>187.95141433235699</v>
       </c>
       <c r="J33" s="14">
-        <v>9.8478787401509997</v>
+        <v>9.92185037080597</v>
       </c>
       <c r="K33" s="14">
-        <v>2.8741133462656999E-3</v>
+        <v>2.7697537298554298E-3</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1824,104 +1861,104 @@
         <v>14</v>
       </c>
       <c r="B34" s="14">
-        <v>-0.365680878423636</v>
+        <v>-0.38010108580103502</v>
       </c>
       <c r="C34" s="14">
-        <v>0.102017019006093</v>
-      </c>
-      <c r="D34" s="14">
-        <v>0.247779060581266</v>
+        <v>0.102896810321979</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="E34" s="14">
-        <v>-2.5027718286959998E-2</v>
+        <v>-5.3843075060779302E-2</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="3">
+        <v>5</v>
+      </c>
+      <c r="H34" s="14">
+        <v>-89.308210886907403</v>
+      </c>
+      <c r="I34" s="14">
+        <v>188.61642177381501</v>
+      </c>
+      <c r="J34" s="14">
+        <v>10.5868578122643</v>
+      </c>
+      <c r="K34" s="14">
+        <v>1.9862624150140699E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0.19594337137972101</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.191101574538108</v>
+      </c>
+      <c r="D35" s="15">
+        <v>-0.117227038555693</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="15">
+        <v>-0.14756987841066299</v>
+      </c>
+      <c r="G35" s="10">
         <v>6</v>
       </c>
-      <c r="H34" s="14">
-        <v>-87.975707166178296</v>
-      </c>
-      <c r="I34" s="14">
-        <v>187.95141433235699</v>
-      </c>
-      <c r="J34" s="14">
-        <v>9.92185037080597</v>
-      </c>
-      <c r="K34" s="14">
-        <v>2.7697537298554298E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="14">
-        <v>-0.38010108580103502</v>
-      </c>
-      <c r="C35" s="14">
-        <v>0.102896810321979</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="14">
-        <v>-5.3843075060779302E-2</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="15">
+        <v>-220.708020086451</v>
+      </c>
+      <c r="I35" s="15">
+        <v>453.41604017290098</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0.36482091042262099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="16">
+        <v>0.109056384616285</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0.18958562105118901</v>
+      </c>
+      <c r="D36" s="16">
+        <v>-0.11999518249369399</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="4">
         <v>5</v>
       </c>
-      <c r="H35" s="14">
-        <v>-89.308210886907403</v>
-      </c>
-      <c r="I35" s="14">
-        <v>188.61642177381501</v>
-      </c>
-      <c r="J35" s="14">
-        <v>10.5868578122643</v>
-      </c>
-      <c r="K35" s="14">
-        <v>1.9862624150140699E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="15">
-        <v>0.19594337137972101</v>
-      </c>
-      <c r="C36" s="15">
-        <v>0.191101574538108</v>
-      </c>
-      <c r="D36" s="15">
-        <v>-0.117227038555693</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="15">
-        <v>-0.14756987841066299</v>
-      </c>
-      <c r="G36" s="10">
-        <v>6</v>
-      </c>
-      <c r="H36" s="15">
-        <v>-220.708020086451</v>
-      </c>
-      <c r="I36" s="15">
-        <v>453.41604017290098</v>
-      </c>
-      <c r="J36" s="15">
-        <v>0</v>
-      </c>
-      <c r="K36" s="15">
-        <v>0.36482091042262099</v>
+      <c r="H36" s="16">
+        <v>-221.83104309987499</v>
+      </c>
+      <c r="I36" s="16">
+        <v>453.662086199751</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0.24604602684905799</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0.32259045043266998</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1929,34 +1966,34 @@
         <v>15</v>
       </c>
       <c r="B37" s="16">
-        <v>0.109056384616285</v>
+        <v>0.19721030783839899</v>
       </c>
       <c r="C37" s="16">
-        <v>0.18958562105118901</v>
+        <v>0.19135880085204099</v>
       </c>
       <c r="D37" s="16">
-        <v>-0.11999518249369399</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>13</v>
+        <v>-0.117849350857452</v>
+      </c>
+      <c r="E37" s="16">
+        <v>-1.1083326090899299E-2</v>
+      </c>
+      <c r="F37" s="16">
+        <v>-0.15005716374126199</v>
       </c>
       <c r="G37" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H37" s="16">
-        <v>-221.83104309987499</v>
+        <v>-220.69258160940799</v>
       </c>
       <c r="I37" s="16">
-        <v>453.662086199751</v>
+        <v>455.38516321881701</v>
       </c>
       <c r="J37" s="16">
-        <v>0.24604602684905799</v>
+        <v>1.9691230459151301</v>
       </c>
       <c r="K37" s="16">
-        <v>0.32259045043266998</v>
+        <v>0.136298189284905</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1964,34 +2001,34 @@
         <v>15</v>
       </c>
       <c r="B38" s="16">
-        <v>0.19721030783839899</v>
+        <v>0.109101539293636</v>
       </c>
       <c r="C38" s="16">
-        <v>0.19135880085204099</v>
+        <v>0.189532602995309</v>
       </c>
       <c r="D38" s="16">
-        <v>-0.117849350857452</v>
+        <v>-0.119842006510187</v>
       </c>
       <c r="E38" s="16">
-        <v>-1.1083326090899299E-2</v>
-      </c>
-      <c r="F38" s="16">
-        <v>-0.15005716374126199</v>
+        <v>2.5388747566271199E-3</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="G38" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H38" s="16">
-        <v>-220.69258160940799</v>
+        <v>-221.830226923293</v>
       </c>
       <c r="I38" s="16">
-        <v>455.38516321881701</v>
+        <v>455.66045384658503</v>
       </c>
       <c r="J38" s="16">
-        <v>1.9691230459151301</v>
+        <v>2.24441367368388</v>
       </c>
       <c r="K38" s="16">
-        <v>0.136298189284905</v>
+        <v>0.11877129343215299</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1999,34 +2036,34 @@
         <v>15</v>
       </c>
       <c r="B39" s="16">
-        <v>0.109101539293636</v>
+        <v>0.184693614145998</v>
       </c>
       <c r="C39" s="16">
-        <v>0.189532602995309</v>
-      </c>
-      <c r="D39" s="16">
-        <v>-0.119842006510187</v>
-      </c>
-      <c r="E39" s="16">
-        <v>2.5388747566271199E-3</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>13</v>
+        <v>0.17631501583162701</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="16">
+        <v>-0.15913430373214399</v>
       </c>
       <c r="G39" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H39" s="16">
-        <v>-221.830226923293</v>
+        <v>-224.447139718709</v>
       </c>
       <c r="I39" s="16">
-        <v>455.66045384658503</v>
+        <v>458.89427943741799</v>
       </c>
       <c r="J39" s="16">
-        <v>2.24441367368388</v>
+        <v>5.4782392645164499</v>
       </c>
       <c r="K39" s="16">
-        <v>0.11877129343215299</v>
+        <v>2.35773603532566E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2034,10 +2071,10 @@
         <v>15</v>
       </c>
       <c r="B40" s="16">
-        <v>0.184693614145998</v>
+        <v>9.05367745103451E-2</v>
       </c>
       <c r="C40" s="16">
-        <v>0.17631501583162701</v>
+        <v>0.174304376037065</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>13</v>
@@ -2045,23 +2082,23 @@
       <c r="E40" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="16">
-        <v>-0.15913430373214399</v>
+      <c r="F40" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="G40" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" s="16">
-        <v>-224.447139718709</v>
+        <v>-225.70257112599899</v>
       </c>
       <c r="I40" s="16">
-        <v>458.89427943741799</v>
+        <v>459.40514225199797</v>
       </c>
       <c r="J40" s="16">
-        <v>5.4782392645164499</v>
+        <v>5.9891020790968801</v>
       </c>
       <c r="K40" s="16">
-        <v>2.35773603532566E-2</v>
+        <v>1.82626051954007E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2069,34 +2106,34 @@
         <v>15</v>
       </c>
       <c r="B41" s="16">
-        <v>9.05367745103451E-2</v>
+        <v>0.18432018224865099</v>
       </c>
       <c r="C41" s="16">
-        <v>0.174304376037065</v>
+        <v>0.17625998556366801</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>13</v>
+      <c r="E41" s="16">
+        <v>3.4284962282282801E-3</v>
+      </c>
+      <c r="F41" s="16">
+        <v>-0.15834603467446201</v>
       </c>
       <c r="G41" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H41" s="16">
-        <v>-225.70257112599899</v>
+        <v>-224.44571099037799</v>
       </c>
       <c r="I41" s="16">
-        <v>459.40514225199797</v>
+        <v>460.89142198075501</v>
       </c>
       <c r="J41" s="16">
-        <v>5.9891020790968801</v>
+        <v>7.4753818078538599</v>
       </c>
       <c r="K41" s="16">
-        <v>1.82626051954007E-2</v>
+        <v>8.6860272632714904E-3</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2104,34 +2141,34 @@
         <v>15</v>
       </c>
       <c r="B42" s="16">
-        <v>0.18432018224865099</v>
+        <v>9.1025945811203796E-2</v>
       </c>
       <c r="C42" s="16">
-        <v>0.17625998556366801</v>
+        <v>0.17406722594097099</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="16">
-        <v>3.4284962282282801E-3</v>
-      </c>
-      <c r="F42" s="16">
-        <v>-0.15834603467446201</v>
+        <v>1.8068604997913601E-2</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="G42" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H42" s="16">
-        <v>-224.44571099037799</v>
+        <v>-225.662606624392</v>
       </c>
       <c r="I42" s="16">
-        <v>460.89142198075501</v>
+        <v>461.32521324878297</v>
       </c>
       <c r="J42" s="16">
-        <v>7.4753818078538599</v>
+        <v>7.9091730758816503</v>
       </c>
       <c r="K42" s="16">
-        <v>8.6860272632714904E-3</v>
+        <v>6.9923733862711597E-3</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2139,34 +2176,34 @@
         <v>15</v>
       </c>
       <c r="B43" s="16">
-        <v>9.1025945811203796E-2</v>
-      </c>
-      <c r="C43" s="16">
-        <v>0.17406722594097099</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="16">
-        <v>1.8068604997913601E-2</v>
+        <v>9.1245441748439501E-2</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="16">
+        <v>-8.0086372202296904E-2</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" s="16">
-        <v>-225.662606624392</v>
+        <v>-237.12227329784699</v>
       </c>
       <c r="I43" s="16">
-        <v>461.32521324878297</v>
+        <v>482.24454659569398</v>
       </c>
       <c r="J43" s="16">
-        <v>7.9091730758816503</v>
+        <v>28.828506422792302</v>
       </c>
       <c r="K43" s="16">
-        <v>6.9923733862711597E-3</v>
+        <v>2.0046986242683099E-7</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2174,34 +2211,34 @@
         <v>15</v>
       </c>
       <c r="B44" s="16">
-        <v>9.1245441748439501E-2</v>
+        <v>0.167355616395502</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="16">
-        <v>-8.0086372202296904E-2</v>
+        <v>-7.7370238932416693E-2</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>13</v>
+      <c r="F44" s="16">
+        <v>-0.12941946491338199</v>
       </c>
       <c r="G44" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" s="16">
-        <v>-237.12227329784699</v>
+        <v>-236.398868462661</v>
       </c>
       <c r="I44" s="16">
-        <v>482.24454659569398</v>
+        <v>482.79773692532302</v>
       </c>
       <c r="J44" s="16">
-        <v>28.828506422792302</v>
+        <v>29.381696752421</v>
       </c>
       <c r="K44" s="16">
-        <v>2.0046986242683099E-7</v>
+        <v>1.5202861482387E-7</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2209,34 +2246,34 @@
         <v>15</v>
       </c>
       <c r="B45" s="16">
-        <v>0.167355616395502</v>
+        <v>7.9626512909078795E-2</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="16">
-        <v>-7.7370238932416693E-2</v>
+      <c r="D45" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="16">
-        <v>-0.12941946491338199</v>
+      <c r="F45" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="G45" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H45" s="16">
-        <v>-236.398868462661</v>
+        <v>-238.63231094673799</v>
       </c>
       <c r="I45" s="16">
-        <v>482.79773692532302</v>
+        <v>483.264621893477</v>
       </c>
       <c r="J45" s="16">
-        <v>29.381696752421</v>
+        <v>29.8485817205754</v>
       </c>
       <c r="K45" s="16">
-        <v>1.5202861482387E-7</v>
+        <v>1.2037673393650099E-7</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2244,7 +2281,7 @@
         <v>15</v>
       </c>
       <c r="B46" s="16">
-        <v>7.9626512909078795E-2</v>
+        <v>0.16131307575658199</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>13</v>
@@ -2255,23 +2292,23 @@
       <c r="E46" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>13</v>
+      <c r="F46" s="16">
+        <v>-0.13819060553913001</v>
       </c>
       <c r="G46" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" s="16">
-        <v>-238.63231094673799</v>
+        <v>-237.81768098063401</v>
       </c>
       <c r="I46" s="16">
-        <v>483.264621893477</v>
+        <v>483.63536196126802</v>
       </c>
       <c r="J46" s="16">
-        <v>29.8485817205754</v>
+        <v>30.2193217883664</v>
       </c>
       <c r="K46" s="16">
-        <v>1.2037673393650099E-7</v>
+        <v>1.00008605829069E-7</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2279,34 +2316,34 @@
         <v>15</v>
       </c>
       <c r="B47" s="16">
-        <v>0.16131307575658199</v>
+        <v>9.1570806164323296E-2</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="16">
-        <v>-0.13819060553913001</v>
+      <c r="D47" s="16">
+        <v>-7.9151191401895096E-2</v>
+      </c>
+      <c r="E47" s="16">
+        <v>1.6772223989423001E-2</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="G47" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47" s="16">
-        <v>-237.81768098063401</v>
+        <v>-237.09231596893301</v>
       </c>
       <c r="I47" s="16">
-        <v>483.63536196126802</v>
+        <v>484.18463193786602</v>
       </c>
       <c r="J47" s="16">
-        <v>30.2193217883664</v>
+        <v>30.7685917649647</v>
       </c>
       <c r="K47" s="16">
-        <v>1.00008605829069E-7</v>
+        <v>7.5991481788679795E-8</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2314,34 +2351,34 @@
         <v>15</v>
       </c>
       <c r="B48" s="16">
-        <v>9.1570806164323296E-2</v>
+        <v>0.166769499027899</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="16">
-        <v>-7.9151191401895096E-2</v>
+        <v>-7.7100901474260006E-2</v>
       </c>
       <c r="E48" s="16">
-        <v>1.6772223989423001E-2</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>13</v>
+        <v>5.2689416042349599E-3</v>
+      </c>
+      <c r="F48" s="16">
+        <v>-0.12824870286528001</v>
       </c>
       <c r="G48" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H48" s="16">
-        <v>-237.09231596893301</v>
+        <v>-236.39594618919699</v>
       </c>
       <c r="I48" s="16">
-        <v>484.18463193786602</v>
+        <v>484.79189237839398</v>
       </c>
       <c r="J48" s="16">
-        <v>30.7685917649647</v>
+        <v>31.375852205492698</v>
       </c>
       <c r="K48" s="16">
-        <v>7.5991481788679795E-8</v>
+        <v>5.6091878401000999E-8</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2349,34 +2386,34 @@
         <v>15</v>
       </c>
       <c r="B49" s="16">
-        <v>0.166769499027899</v>
+        <v>8.0355447794464796E-2</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="16">
-        <v>-7.7100901474260006E-2</v>
+      <c r="D49" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="E49" s="16">
-        <v>5.2689416042349599E-3</v>
-      </c>
-      <c r="F49" s="16">
-        <v>-0.12824870286528001</v>
+        <v>2.65050950169218E-2</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="G49" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H49" s="16">
-        <v>-236.39594618919699</v>
+        <v>-238.558101292712</v>
       </c>
       <c r="I49" s="16">
-        <v>484.79189237839398</v>
+        <v>485.11620258542303</v>
       </c>
       <c r="J49" s="16">
-        <v>31.375852205492698</v>
+        <v>31.7001624125216</v>
       </c>
       <c r="K49" s="16">
-        <v>5.6091878401000999E-8</v>
+        <v>4.7695446327185502E-8</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2384,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="B50" s="16">
-        <v>8.0355447794464796E-2</v>
+        <v>0.15979753619627701</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>13</v>
@@ -2393,72 +2430,45 @@
         <v>13</v>
       </c>
       <c r="E50" s="16">
-        <v>2.65050950169218E-2</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>13</v>
+        <v>1.41368889505051E-2</v>
+      </c>
+      <c r="F50" s="16">
+        <v>-0.13496803971118199</v>
       </c>
       <c r="G50" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" s="16">
-        <v>-238.558101292712</v>
+        <v>-237.796815792102</v>
       </c>
       <c r="I50" s="16">
-        <v>485.11620258542303</v>
+        <v>485.59363158420501</v>
       </c>
       <c r="J50" s="16">
-        <v>31.7001624125216</v>
+        <v>32.177591411303098</v>
       </c>
       <c r="K50" s="16">
-        <v>4.7695446327185502E-8</v>
+        <v>3.7566828080837098E-8</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="16">
-        <v>0.15979753619627701</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="16">
-        <v>1.41368889505051E-2</v>
-      </c>
-      <c r="F51" s="16">
-        <v>-0.13496803971118199</v>
-      </c>
-      <c r="G51" s="4">
-        <v>5</v>
-      </c>
-      <c r="H51" s="16">
-        <v>-237.796815792102</v>
-      </c>
-      <c r="I51" s="16">
-        <v>485.59363158420501</v>
-      </c>
-      <c r="J51" s="16">
-        <v>32.177591411303098</v>
-      </c>
-      <c r="K51" s="16">
-        <v>3.7566828080837098E-8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="19.5"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
+  <mergeCells count="8">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
